--- a/Plantilla_Horario.xlsx
+++ b/Plantilla_Horario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Proyecto Seminario de Algoritmia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DALIA\Schedule-Generator-AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BBEC0-F1C4-493F-A901-1B4BDB971896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B7600-C21F-4D09-9386-E7ABCA1C1257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1905" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Materia</t>
   </si>
@@ -124,6 +115,135 @@
   </si>
   <si>
     <t>M-J/7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica </t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisela </t>
+  </si>
+  <si>
+    <t>L-S/7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos de computacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadistica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redes </t>
+  </si>
+  <si>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodos matematicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematica discreta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura de computadoras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traductores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de la computacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieria en software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas operativos </t>
+  </si>
+  <si>
+    <t>Computacion tolerante a fallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteligencia artificial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas operativos de red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulacion por computadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas concurrentes y distribuidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programacion para internet </t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>Echauri</t>
+  </si>
+  <si>
+    <t>Gastelú</t>
+  </si>
+  <si>
+    <t>Thelma</t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abelardo </t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Deliazar</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>S/11-15</t>
+  </si>
+  <si>
+    <t>M-J/11-13</t>
+  </si>
+  <si>
+    <t>M-J/13-15</t>
+  </si>
+  <si>
+    <t>L-S/9-11</t>
+  </si>
+  <si>
+    <t>L-S/11-13</t>
+  </si>
+  <si>
+    <t>S/9-13</t>
   </si>
 </sst>
 </file>
@@ -475,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99C014-A569-482F-9854-47235F4B3C3F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,6 +747,463 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plantilla_Horario.xlsx
+++ b/Plantilla_Horario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DALIA\Schedule-Generator-AG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Proyecto Seminario de Algoritmia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B7600-C21F-4D09-9386-E7ABCA1C1257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FC9DD-F64A-4815-8E4C-7A49E8F09FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
+    <workbookView xWindow="8280" yWindow="1365" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Materia</t>
   </si>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99C014-A569-482F-9854-47235F4B3C3F}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,79 +649,79 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -729,82 +729,82 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,19 +829,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -849,159 +849,159 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <v>5</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1009,139 +1009,139 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>5</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1149,22 +1149,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,39 +1172,45 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plantilla_Horario.xlsx
+++ b/Plantilla_Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Proyecto Seminario de Algoritmia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FC9DD-F64A-4815-8E4C-7A49E8F09FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1807D-707E-428B-B78D-3F2CF93B22FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8280" yWindow="1365" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Materia</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Graciela</t>
   </si>
   <si>
-    <t>L-I/7-9</t>
-  </si>
-  <si>
     <t>Redes</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>S/9-13</t>
+  </si>
+  <si>
+    <t>M-J/15-17</t>
+  </si>
+  <si>
+    <t>L-I/15-17</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99C014-A569-482F-9854-47235F4B3C3F}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +652,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -678,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -689,13 +692,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -709,7 +712,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -718,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -729,16 +732,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -758,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -769,16 +772,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -789,16 +792,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -809,16 +812,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -829,10 +832,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -849,10 +852,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -869,13 +872,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -889,13 +892,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -932,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -949,16 +952,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -969,16 +972,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -989,16 +992,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -1009,13 +1012,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1049,13 +1052,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1069,16 +1072,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1089,16 +1092,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1109,13 +1112,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -1129,16 +1132,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1149,16 +1152,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1169,13 +1172,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1189,16 +1192,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>4</v>

--- a/Plantilla_Horario.xlsx
+++ b/Plantilla_Horario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Proyecto Seminario de Algoritmia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC1807D-707E-428B-B78D-3F2CF93B22FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA42C2-557B-49C3-955E-E54A4CD121D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="1365" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
+    <workbookView xWindow="4830" yWindow="2610" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>Materia</t>
   </si>
@@ -129,9 +129,6 @@
     <t xml:space="preserve">Marisela </t>
   </si>
   <si>
-    <t>L-S/7-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia </t>
   </si>
   <si>
@@ -234,12 +231,6 @@
     <t>M-J/13-15</t>
   </si>
   <si>
-    <t>L-S/9-11</t>
-  </si>
-  <si>
-    <t>L-S/11-13</t>
-  </si>
-  <si>
     <t>S/9-13</t>
   </si>
   <si>
@@ -247,16 +238,40 @@
   </si>
   <si>
     <t>L-I/15-17</t>
+  </si>
+  <si>
+    <t>L-I/7-9</t>
+  </si>
+  <si>
+    <t>L-I/9-11</t>
+  </si>
+  <si>
+    <t>L-I/11-13</t>
+  </si>
+  <si>
+    <t>L-I/17-19</t>
+  </si>
+  <si>
+    <t>V/15-19</t>
+  </si>
+  <si>
+    <t>M-J/19-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,7 +616,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,13 +667,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -681,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -692,13 +707,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -712,7 +727,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -721,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -732,16 +747,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -761,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -772,16 +787,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -801,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -812,16 +827,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -832,7 +847,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -852,10 +867,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -872,16 +887,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -892,7 +907,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -935,10 +950,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -952,7 +967,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -961,7 +976,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -972,16 +987,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1012,13 +1027,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1052,13 +1067,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1072,16 +1087,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -1092,7 +1107,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1101,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1112,16 +1127,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -1132,16 +1147,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1152,16 +1167,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1172,13 +1187,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1192,16 +1207,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1214,6 +1229,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
     <sortCondition ref="A2:A30"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plantilla_Horario.xlsx
+++ b/Plantilla_Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Proyecto Seminario de Algoritmia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA42C2-557B-49C3-955E-E54A4CD121D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E11B71-BB3F-4BFA-823C-CB48F4052938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="2610" windowWidth="17700" windowHeight="11385" xr2:uid="{F56D63F2-97B0-4BD1-B0C9-D23A4D4A050D}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
